--- a/doc/接口详细信息表.xlsx
+++ b/doc/接口详细信息表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,6 +389,10 @@
       </rPr>
       <t>（可传）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/modify</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,6 +526,74 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -541,7 +613,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -823,7 +895,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.3"/>
@@ -893,7 +965,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
